--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -200,13 +200,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,7 +1262,7 @@
       <c r="C31" s="1"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="30">
+      <c r="C33" s="28">
         <f>SUM(C2:C32)</f>
         <v>0</v>
       </c>
@@ -1300,10 +1300,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
@@ -1881,10 +1881,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
@@ -2424,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2446,10 +2446,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
@@ -2758,13 +2758,21 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+      <c r="A20" s="24">
         <v>45065</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="B20" s="16">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>14</v>
+      </c>
+      <c r="D20" s="16">
+        <v>54</v>
+      </c>
+      <c r="E20" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
@@ -2880,11 +2888,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2918,10 +2926,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -3174,37 +3182,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06F5563-AB77-4CDA-B251-EB181D0508AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -16,12 +17,12 @@
     <sheet name="Julho" sheetId="9" r:id="rId7"/>
     <sheet name="Relatorio" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -227,7 +228,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -265,7 +266,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -300,6 +301,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -335,9 +353,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,21 +545,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -535,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44927</v>
       </c>
@@ -546,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44928</v>
       </c>
@@ -557,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44929</v>
       </c>
@@ -568,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>44930</v>
       </c>
@@ -579,7 +614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44931</v>
       </c>
@@ -590,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44932</v>
       </c>
@@ -601,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>44933</v>
       </c>
@@ -612,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44934</v>
       </c>
@@ -623,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44935</v>
       </c>
@@ -634,7 +669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44936</v>
       </c>
@@ -645,7 +680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44937</v>
       </c>
@@ -656,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44938</v>
       </c>
@@ -667,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>44939</v>
       </c>
@@ -678,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>44940</v>
       </c>
@@ -689,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>44941</v>
       </c>
@@ -700,7 +735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>44942</v>
       </c>
@@ -711,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>44943</v>
       </c>
@@ -722,7 +757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>44944</v>
       </c>
@@ -733,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>44945</v>
       </c>
@@ -744,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>44946</v>
       </c>
@@ -755,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>44947</v>
       </c>
@@ -766,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>44948</v>
       </c>
@@ -777,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>44949</v>
       </c>
@@ -788,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>44950</v>
       </c>
@@ -799,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>44951</v>
       </c>
@@ -810,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>44952</v>
       </c>
@@ -821,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>44953</v>
       </c>
@@ -832,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>44954</v>
       </c>
@@ -843,7 +878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>44955</v>
       </c>
@@ -854,7 +889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>44956</v>
       </c>
@@ -865,7 +900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>44957</v>
       </c>
@@ -876,7 +911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -889,19 +924,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -910,21 +945,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -935,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44958</v>
       </c>
@@ -946,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44959</v>
       </c>
@@ -957,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44960</v>
       </c>
@@ -968,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>44961</v>
       </c>
@@ -979,7 +1014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44962</v>
       </c>
@@ -990,7 +1025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44963</v>
       </c>
@@ -1001,7 +1036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>44964</v>
       </c>
@@ -1012,7 +1047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44965</v>
       </c>
@@ -1023,7 +1058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44966</v>
       </c>
@@ -1034,7 +1069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44967</v>
       </c>
@@ -1045,7 +1080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44968</v>
       </c>
@@ -1056,7 +1091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44969</v>
       </c>
@@ -1067,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>44970</v>
       </c>
@@ -1078,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>44971</v>
       </c>
@@ -1089,7 +1124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>44972</v>
       </c>
@@ -1100,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>44973</v>
       </c>
@@ -1111,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>44974</v>
       </c>
@@ -1122,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>44975</v>
       </c>
@@ -1133,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>44976</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>44977</v>
       </c>
@@ -1155,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>44978</v>
       </c>
@@ -1166,7 +1201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>44979</v>
       </c>
@@ -1177,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>44980</v>
       </c>
@@ -1188,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>44981</v>
       </c>
@@ -1199,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>44982</v>
       </c>
@@ -1210,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>44983</v>
       </c>
@@ -1221,7 +1256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>44984</v>
       </c>
@@ -1232,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>44985</v>
       </c>
@@ -1243,7 +1278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1256,12 +1291,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="28">
         <f>SUM(C2:C32)</f>
         <v>0</v>
@@ -1274,23 +1309,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1305,7 +1340,7 @@
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44986</v>
       </c>
@@ -1322,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44987</v>
       </c>
@@ -1339,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44988</v>
       </c>
@@ -1356,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>44989</v>
       </c>
@@ -1373,7 +1408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44990</v>
       </c>
@@ -1390,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44991</v>
       </c>
@@ -1407,7 +1442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>44992</v>
       </c>
@@ -1424,7 +1459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44993</v>
       </c>
@@ -1441,7 +1476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44994</v>
       </c>
@@ -1458,7 +1493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44995</v>
       </c>
@@ -1475,7 +1510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44996</v>
       </c>
@@ -1492,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44997</v>
       </c>
@@ -1509,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>44998</v>
       </c>
@@ -1526,7 +1561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>44999</v>
       </c>
@@ -1543,7 +1578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>45000</v>
       </c>
@@ -1560,7 +1595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>45001</v>
       </c>
@@ -1577,7 +1612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>45002</v>
       </c>
@@ -1594,7 +1629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>45003</v>
       </c>
@@ -1611,7 +1646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>45004</v>
       </c>
@@ -1628,7 +1663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>45005</v>
       </c>
@@ -1645,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>45006</v>
       </c>
@@ -1662,7 +1697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>45007</v>
       </c>
@@ -1679,7 +1714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>45008</v>
       </c>
@@ -1696,7 +1731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>45009</v>
       </c>
@@ -1713,7 +1748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>45010</v>
       </c>
@@ -1730,7 +1765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>45011</v>
       </c>
@@ -1747,7 +1782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>45012</v>
       </c>
@@ -1764,7 +1799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>45013</v>
       </c>
@@ -1781,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>45014</v>
       </c>
@@ -1798,7 +1833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>45015</v>
       </c>
@@ -1815,7 +1850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>45016</v>
       </c>
@@ -1832,7 +1867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1856,22 +1891,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +1921,7 @@
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>45017</v>
       </c>
@@ -1903,7 +1938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>45018</v>
       </c>
@@ -1920,7 +1955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>45019</v>
       </c>
@@ -1937,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>45020</v>
       </c>
@@ -1954,7 +1989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45021</v>
       </c>
@@ -1971,7 +2006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>45022</v>
       </c>
@@ -1988,7 +2023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>45023</v>
       </c>
@@ -2005,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>45024</v>
       </c>
@@ -2022,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>45025</v>
       </c>
@@ -2039,7 +2074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>45026</v>
       </c>
@@ -2056,7 +2091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>45027</v>
       </c>
@@ -2073,7 +2108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>45028</v>
       </c>
@@ -2090,7 +2125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>45029</v>
       </c>
@@ -2107,7 +2142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>45030</v>
       </c>
@@ -2124,7 +2159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>45031</v>
       </c>
@@ -2141,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>45032</v>
       </c>
@@ -2158,7 +2193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>45033</v>
       </c>
@@ -2175,7 +2210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>45034</v>
       </c>
@@ -2192,7 +2227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>45035</v>
       </c>
@@ -2209,7 +2244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>45036</v>
       </c>
@@ -2226,7 +2261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>45037</v>
       </c>
@@ -2243,7 +2278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>45038</v>
       </c>
@@ -2260,7 +2295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>45039</v>
       </c>
@@ -2277,7 +2312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>45040</v>
       </c>
@@ -2294,7 +2329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>45041</v>
       </c>
@@ -2311,7 +2346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>45042</v>
       </c>
@@ -2328,7 +2363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>45043</v>
       </c>
@@ -2345,7 +2380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>45044</v>
       </c>
@@ -2362,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>45045</v>
       </c>
@@ -2379,7 +2414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>45046</v>
       </c>
@@ -2396,7 +2431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
@@ -2421,22 +2456,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
@@ -2451,7 +2486,7 @@
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>45047</v>
       </c>
@@ -2468,7 +2503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>45048</v>
       </c>
@@ -2485,7 +2520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>45049</v>
       </c>
@@ -2502,7 +2537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>45050</v>
       </c>
@@ -2519,7 +2554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>45051</v>
       </c>
@@ -2536,7 +2571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>45052</v>
       </c>
@@ -2553,7 +2588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>45053</v>
       </c>
@@ -2570,7 +2605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>45054</v>
       </c>
@@ -2587,7 +2622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>45055</v>
       </c>
@@ -2604,7 +2639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>45056</v>
       </c>
@@ -2621,7 +2656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>45057</v>
       </c>
@@ -2638,7 +2673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>45058</v>
       </c>
@@ -2655,7 +2690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>45059</v>
       </c>
@@ -2672,7 +2707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>45060</v>
       </c>
@@ -2689,7 +2724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>45061</v>
       </c>
@@ -2706,7 +2741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>45062</v>
       </c>
@@ -2723,7 +2758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>45063</v>
       </c>
@@ -2740,7 +2775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>45064</v>
       </c>
@@ -2757,7 +2792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>45065</v>
       </c>
@@ -2774,16 +2809,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
         <v>45066</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>45067</v>
       </c>
@@ -2792,7 +2835,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>45068</v>
       </c>
@@ -2801,7 +2844,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>45069</v>
       </c>
@@ -2810,7 +2853,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>45070</v>
       </c>
@@ -2819,7 +2862,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>45071</v>
       </c>
@@ -2828,7 +2871,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>45072</v>
       </c>
@@ -2837,7 +2880,7 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>45073</v>
       </c>
@@ -2846,7 +2889,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>45074</v>
       </c>
@@ -2855,7 +2898,7 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>45075</v>
       </c>
@@ -2864,7 +2907,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>45076</v>
       </c>
@@ -2873,7 +2916,7 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>45077</v>
       </c>
@@ -2882,7 +2925,7 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>0</v>
       </c>
@@ -2907,16 +2950,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2931,217 +2974,217 @@
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="22"/>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="22"/>
       <c r="C20" s="21"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="22"/>
       <c r="C25" s="21"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
@@ -3165,37 +3208,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
@@ -3205,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06F5563-AB77-4CDA-B251-EB181D0508AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9D02E9-3F98-4083-81A7-6C902B5B8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2460,7 +2460,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,13 +2827,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="25">
         <v>45067</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26">

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9D02E9-3F98-4083-81A7-6C902B5B8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8255A3B6-57E9-4832-9FCD-3945B8578E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,6 +206,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2844,13 +2847,21 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+      <c r="A23" s="31">
         <v>45068</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>7</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
@@ -2939,11 +2950,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -3263,7 +3274,7 @@
       <c r="B3" s="30"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8255A3B6-57E9-4832-9FCD-3945B8578E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51572C6-66D6-473A-A4BB-346CCE116954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -202,13 +202,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1338,10 +1338,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -1919,10 +1919,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -2462,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,10 +2484,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
@@ -2847,7 +2847,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
+      <c r="A23" s="29">
         <v>45068</v>
       </c>
       <c r="B23" s="16">
@@ -2864,22 +2864,38 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+      <c r="A24" s="29">
         <v>45069</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="B24" s="16">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>14</v>
+      </c>
+      <c r="D24" s="16">
+        <v>54</v>
+      </c>
+      <c r="E24" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="A25" s="29">
         <v>45070</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>7</v>
+      </c>
+      <c r="D25" s="16">
+        <v>54</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -2950,11 +2966,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33" s="7">
-        <f>SUM(C2:C31)</f>
-        <v>28</v>
+        <f>SUM(C2:C32)</f>
+        <v>49</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2988,10 +3004,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -3251,30 +3267,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51572C6-66D6-473A-A4BB-346CCE116954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9A21EA-B9CE-423F-BCA9-9478038B20F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2463,7 +2463,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,22 +2898,38 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="29">
         <v>45071</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="B26" s="16">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9">
+        <v>7</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+      <c r="A27" s="29">
         <v>45072</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="B27" s="16">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>14</v>
+      </c>
+      <c r="D27" s="16">
+        <v>54</v>
+      </c>
+      <c r="E27" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
@@ -2966,11 +2982,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -3290,7 +3306,7 @@
       <c r="B3" s="31"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9A21EA-B9CE-423F-BCA9-9478038B20F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2160B5C-9A45-4FAA-8CA1-D0538CA659F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2463,7 +2463,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,22 +2932,38 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+      <c r="A28" s="25">
         <v>45073</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="B28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+      <c r="A29" s="25">
         <v>45074</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="B29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26">

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2160B5C-9A45-4FAA-8CA1-D0538CA659F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E532D76-187A-449D-802E-2C8504A14DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2463,7 +2463,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,13 +2966,21 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="24">
         <v>45075</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="B30" s="16">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>7</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
@@ -2998,11 +3006,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -3322,7 +3330,7 @@
       <c r="B3" s="31"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E532D76-187A-449D-802E-2C8504A14DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D6E7BC-4819-4CDB-BFC5-8BD265922C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -67,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +95,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +215,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2463,7 +2472,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B32" sqref="B32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,22 +2992,30 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+      <c r="A31" s="25">
         <v>45076</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="B31" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>45077</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D6E7BC-4819-4CDB-BFC5-8BD265922C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D71B74F-8AF7-458E-B71E-384AF4C537CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -67,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,12 +95,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,9 +197,6 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -215,9 +206,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1309,7 +1297,7 @@
       <c r="C31" s="1"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <f>SUM(C2:C32)</f>
         <v>0</v>
       </c>
@@ -1347,10 +1335,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -1928,10 +1916,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -2471,13 +2459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="26" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
@@ -2493,10 +2481,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
@@ -2856,7 +2844,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>45068</v>
       </c>
       <c r="B23" s="16">
@@ -2873,7 +2861,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="28">
         <v>45069</v>
       </c>
       <c r="B24" s="16">
@@ -2890,7 +2878,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="28">
         <v>45070</v>
       </c>
       <c r="B25" s="16">
@@ -2907,7 +2895,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="28">
         <v>45071</v>
       </c>
       <c r="B26" s="16">
@@ -2924,7 +2912,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="28">
         <v>45072</v>
       </c>
       <c r="B27" s="16">
@@ -3009,13 +2997,21 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+      <c r="A32" s="24">
         <v>45077</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="16">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
+        <v>7</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
@@ -3027,7 +3023,7 @@
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -3061,10 +3057,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -3324,30 +3320,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D71B74F-8AF7-458E-B71E-384AF4C537CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9C27A4-0BE0-45BE-8D50-921F744E60BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -55,8 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$-416]d\-mmm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -126,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,9 +177,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -208,6 +206,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,7 +1308,7 @@
       <c r="C31" s="1"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="27">
+      <c r="C33" s="26">
         <f>SUM(C2:C32)</f>
         <v>0</v>
       </c>
@@ -1335,10 +1346,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -1916,10 +1927,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -2459,20 +2470,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="25" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2481,13 +2492,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>45047</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2504,7 +2515,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>45048</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -2521,7 +2532,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>45049</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2538,7 +2549,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>45050</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2555,7 +2566,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>45051</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -2572,7 +2583,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>45052</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -2589,7 +2600,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>45053</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -2606,7 +2617,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>45054</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -2623,7 +2634,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>45055</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -2640,7 +2651,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>45056</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -2657,7 +2668,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>45057</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -2674,7 +2685,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>45058</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -2691,7 +2702,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>45059</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -2708,7 +2719,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <v>45060</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -2725,7 +2736,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>45061</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -2742,7 +2753,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>45062</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -2759,7 +2770,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>45063</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -2776,7 +2787,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>45064</v>
       </c>
       <c r="B19" s="16">
@@ -2793,7 +2804,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="23">
         <v>45065</v>
       </c>
       <c r="B20" s="16">
@@ -2810,7 +2821,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <v>45066</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -2827,7 +2838,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>45067</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -2844,7 +2855,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <v>45068</v>
       </c>
       <c r="B23" s="16">
@@ -2861,7 +2872,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <v>45069</v>
       </c>
       <c r="B24" s="16">
@@ -2878,7 +2889,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <v>45070</v>
       </c>
       <c r="B25" s="16">
@@ -2895,7 +2906,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <v>45071</v>
       </c>
       <c r="B26" s="16">
@@ -2912,7 +2923,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <v>45072</v>
       </c>
       <c r="B27" s="16">
@@ -2929,7 +2940,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <v>45073</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -2946,7 +2957,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="24">
         <v>45074</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -2963,7 +2974,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="A30" s="23">
         <v>45075</v>
       </c>
       <c r="B30" s="16">
@@ -2980,7 +2991,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="24">
         <v>45076</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -2997,7 +3008,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="A32" s="23">
         <v>45077</v>
       </c>
       <c r="B32" s="16">
@@ -3014,7 +3025,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="5">
@@ -3041,14 +3052,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -3057,232 +3075,372 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="31">
+        <v>45078</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>7</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="31">
+        <v>45079</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>7</v>
+      </c>
+      <c r="D3" s="16">
+        <v>54</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="32">
+        <v>45080</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="32">
+        <v>45081</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="A6" s="33">
+        <v>45082</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="33">
+        <v>45083</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="A8" s="33">
+        <v>45084</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="33">
+        <v>45085</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="33">
+        <v>45086</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="33">
+        <v>45087</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="A12" s="33">
+        <v>45088</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="A13" s="33">
+        <v>45089</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="A14" s="33">
+        <v>45090</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="33">
+        <v>45091</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="33">
+        <v>45092</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="A17" s="33">
+        <v>45093</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="33">
+        <v>45094</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="33">
+        <v>45095</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="33">
+        <v>45096</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="33">
+        <v>45097</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="33">
+        <v>45098</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="A23" s="33">
+        <v>45099</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="A24" s="33">
+        <v>45100</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="33">
+        <v>45101</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="33">
+        <v>45102</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="33">
+        <v>45103</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="33">
+        <v>45104</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="A29" s="33">
+        <v>45105</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="A30" s="33">
+        <v>45106</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="A31" s="33">
+        <v>45107</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3292,6 +3450,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3320,27 +3479,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
         <v>84</v>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9C27A4-0BE0-45BE-8D50-921F744E60BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83372368-21CE-46EC-9594-8A06F53CB23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -57,7 +57,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[$-416]d\-mmm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-416]d\-mmm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,25 +200,28 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,10 +1349,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -1927,10 +1930,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -2492,10 +2495,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
@@ -3053,12 +3056,12 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="32" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -3066,7 +3069,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -3075,13 +3078,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="29">
         <v>45078</v>
       </c>
       <c r="B2" s="16">
@@ -3098,7 +3101,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="A3" s="29">
         <v>45079</v>
       </c>
       <c r="B3" s="16">
@@ -3115,7 +3118,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="30">
         <v>45080</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -3132,7 +3135,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="30">
         <v>45081</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -3149,16 +3152,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="35">
         <v>45082</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>7</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="31">
         <v>45083</v>
       </c>
       <c r="B7" s="19"/>
@@ -3167,7 +3178,7 @@
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="31">
         <v>45084</v>
       </c>
       <c r="B8" s="19"/>
@@ -3176,7 +3187,7 @@
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="31">
         <v>45085</v>
       </c>
       <c r="B9" s="19"/>
@@ -3185,7 +3196,7 @@
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="31">
         <v>45086</v>
       </c>
       <c r="B10" s="19"/>
@@ -3194,7 +3205,7 @@
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="31">
         <v>45087</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -3211,7 +3222,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="31">
         <v>45088</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -3228,7 +3239,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="31">
         <v>45089</v>
       </c>
       <c r="B13" s="19"/>
@@ -3237,7 +3248,7 @@
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="31">
         <v>45090</v>
       </c>
       <c r="B14" s="21"/>
@@ -3246,7 +3257,7 @@
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="31">
         <v>45091</v>
       </c>
       <c r="B15" s="19"/>
@@ -3255,7 +3266,7 @@
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="31">
         <v>45092</v>
       </c>
       <c r="B16" s="19"/>
@@ -3264,7 +3275,7 @@
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="31">
         <v>45093</v>
       </c>
       <c r="B17" s="19"/>
@@ -3273,7 +3284,7 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="31">
         <v>45094</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -3290,7 +3301,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="31">
         <v>45095</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -3307,7 +3318,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="31">
         <v>45096</v>
       </c>
       <c r="B20" s="21"/>
@@ -3316,7 +3327,7 @@
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="31">
         <v>45097</v>
       </c>
       <c r="B21" s="19"/>
@@ -3325,7 +3336,7 @@
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="31">
         <v>45098</v>
       </c>
       <c r="B22" s="19"/>
@@ -3334,7 +3345,7 @@
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="31">
         <v>45099</v>
       </c>
       <c r="B23" s="19"/>
@@ -3343,7 +3354,7 @@
       <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="31">
         <v>45100</v>
       </c>
       <c r="B24" s="19"/>
@@ -3352,7 +3363,7 @@
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="31">
         <v>45101</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -3369,7 +3380,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="31">
         <v>45102</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -3386,7 +3397,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="31">
         <v>45103</v>
       </c>
       <c r="B27" s="19"/>
@@ -3395,7 +3406,7 @@
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="31">
         <v>45104</v>
       </c>
       <c r="B28" s="19"/>
@@ -3404,7 +3415,7 @@
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="31">
         <v>45105</v>
       </c>
       <c r="B29" s="19"/>
@@ -3413,7 +3424,7 @@
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="31">
         <v>45106</v>
       </c>
       <c r="B30" s="19"/>
@@ -3422,7 +3433,7 @@
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="31">
         <v>45107</v>
       </c>
       <c r="B31" s="19"/>
@@ -3431,16 +3442,16 @@
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3479,27 +3490,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
         <v>84</v>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83372368-21CE-46EC-9594-8A06F53CB23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B78D012-69A8-47BB-8578-692FE55236EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,13 +213,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1349,10 +1349,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -1930,10 +1930,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -2495,10 +2495,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
@@ -3055,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,10 +3078,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
@@ -3152,7 +3152,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="33">
         <v>45082</v>
       </c>
       <c r="B6" s="16">
@@ -3169,13 +3169,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="33">
         <v>45083</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>14</v>
+      </c>
+      <c r="D7" s="16">
+        <v>54</v>
+      </c>
+      <c r="E7" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
@@ -3447,11 +3455,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3490,27 +3498,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
         <v>84</v>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B78D012-69A8-47BB-8578-692FE55236EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988E0B90-3AA9-4727-9A42-EED5EAF000F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,9 +240,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,9 +280,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,26 +315,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,26 +350,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3055,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,13 +3152,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="A8" s="33">
         <v>45084</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>14</v>
+      </c>
+      <c r="D8" s="16">
+        <v>54</v>
+      </c>
+      <c r="E8" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
@@ -3455,11 +3429,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988E0B90-3AA9-4727-9A42-EED5EAF000F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA14CB-D1B4-4088-98C4-86656BD25C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3022,7 +3022,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A25" sqref="A25:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,13 +3169,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <v>45085</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
@@ -3187,7 +3195,7 @@
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>45087</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -3204,7 +3212,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>45088</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -3266,7 +3274,7 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>45094</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -3283,7 +3291,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>45095</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -3345,7 +3353,7 @@
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="A25" s="30">
         <v>45101</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -3362,7 +3370,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
+      <c r="A26" s="30">
         <v>45102</v>
       </c>
       <c r="B26" s="17" t="s">

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA14CB-D1B4-4088-98C4-86656BD25C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD42BB-3BDC-407B-AA10-5C2ADB1B00D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3022,7 +3022,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
+      <selection activeCell="A9" sqref="A9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,13 +3186,21 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>45086</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="30">

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD42BB-3BDC-407B-AA10-5C2ADB1B00D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E898F4-45EF-42EB-BBBC-91A352034BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3022,7 +3022,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3237,22 +3237,38 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="A13" s="33">
         <v>45089</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>7</v>
+      </c>
+      <c r="D13" s="16">
+        <v>54</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="33">
         <v>45090</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="16">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>14</v>
+      </c>
+      <c r="D14" s="16">
+        <v>54</v>
+      </c>
+      <c r="E14" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
@@ -3445,11 +3461,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E898F4-45EF-42EB-BBBC-91A352034BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E822F64-3D56-4F90-9BA8-F153F8FED6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3022,7 +3022,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A19" sqref="A3:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,31 +3271,55 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="33">
         <v>45091</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="16">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>14</v>
+      </c>
+      <c r="D15" s="16">
+        <v>54</v>
+      </c>
+      <c r="E15" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>45092</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="A17" s="33">
         <v>45093</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="16">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>14</v>
+      </c>
+      <c r="D17" s="16">
+        <v>54</v>
+      </c>
+      <c r="E17" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
@@ -3461,11 +3485,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E822F64-3D56-4F90-9BA8-F153F8FED6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9F8F4-0074-45A0-83B9-032B33C4AB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,9 +181,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,7 +1274,7 @@
       <c r="C31" s="1"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <f>SUM(C2:C32)</f>
         <v>0</v>
       </c>
@@ -1315,10 +1312,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -1896,10 +1893,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
@@ -2445,14 +2442,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="24" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2461,13 +2458,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="23">
         <v>45047</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2484,7 +2481,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="23">
         <v>45048</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -2501,7 +2498,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>45049</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2518,7 +2515,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>45050</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2535,7 +2532,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>45051</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -2552,7 +2549,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>45052</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -2569,7 +2566,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>45053</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -2586,7 +2583,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>45054</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -2603,7 +2600,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>45055</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -2620,7 +2617,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>45056</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -2637,7 +2634,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>45057</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -2654,7 +2651,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>45058</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -2671,7 +2668,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>45059</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -2688,7 +2685,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>45060</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -2705,7 +2702,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <v>45061</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -2722,7 +2719,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="23">
         <v>45062</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -2739,7 +2736,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="23">
         <v>45063</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -2756,7 +2753,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>45064</v>
       </c>
       <c r="B19" s="16">
@@ -2773,7 +2770,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45065</v>
       </c>
       <c r="B20" s="16">
@@ -2790,7 +2787,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="23">
         <v>45066</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -2807,7 +2804,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="23">
         <v>45067</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -2824,7 +2821,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <v>45068</v>
       </c>
       <c r="B23" s="16">
@@ -2841,7 +2838,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <v>45069</v>
       </c>
       <c r="B24" s="16">
@@ -2858,7 +2855,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="26">
         <v>45070</v>
       </c>
       <c r="B25" s="16">
@@ -2875,7 +2872,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="26">
         <v>45071</v>
       </c>
       <c r="B26" s="16">
@@ -2892,7 +2889,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="26">
         <v>45072</v>
       </c>
       <c r="B27" s="16">
@@ -2909,7 +2906,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="23">
         <v>45073</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -2926,7 +2923,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="23">
         <v>45074</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -2943,7 +2940,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>45075</v>
       </c>
       <c r="B30" s="16">
@@ -2960,7 +2957,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+      <c r="A31" s="23">
         <v>45076</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -2977,7 +2974,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="A32" s="22">
         <v>45077</v>
       </c>
       <c r="B32" s="16">
@@ -2994,7 +2991,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="5">
@@ -3021,13 +3018,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A3:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="32" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="31" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -3035,7 +3032,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -3044,13 +3041,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="28">
         <v>45078</v>
       </c>
       <c r="B2" s="16">
@@ -3067,7 +3064,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>45079</v>
       </c>
       <c r="B3" s="16">
@@ -3084,7 +3081,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="29">
         <v>45080</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -3101,7 +3098,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <v>45081</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -3118,7 +3115,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>45082</v>
       </c>
       <c r="B6" s="16">
@@ -3135,7 +3132,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>45083</v>
       </c>
       <c r="B7" s="16">
@@ -3152,7 +3149,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>45084</v>
       </c>
       <c r="B8" s="16">
@@ -3169,7 +3166,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>45085</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -3186,7 +3183,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <v>45086</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -3203,7 +3200,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <v>45087</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -3220,7 +3217,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>45088</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -3237,7 +3234,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>45089</v>
       </c>
       <c r="B13" s="16">
@@ -3254,7 +3251,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>45090</v>
       </c>
       <c r="B14" s="16">
@@ -3271,7 +3268,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>45091</v>
       </c>
       <c r="B15" s="16">
@@ -3288,7 +3285,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="29">
         <v>45092</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -3305,7 +3302,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>45093</v>
       </c>
       <c r="B17" s="16">
@@ -3322,7 +3319,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>45094</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -3339,7 +3336,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="29">
         <v>45095</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -3356,25 +3353,41 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
+      <c r="A20" s="32">
         <v>45096</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="16">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>14</v>
+      </c>
+      <c r="D20" s="16">
+        <v>54</v>
+      </c>
+      <c r="E20" s="16">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+      <c r="A21" s="29">
         <v>45097</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+      <c r="A22" s="30">
         <v>45098</v>
       </c>
       <c r="B22" s="19"/>
@@ -3383,7 +3396,7 @@
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <v>45099</v>
       </c>
       <c r="B23" s="19"/>
@@ -3392,7 +3405,7 @@
       <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
+      <c r="A24" s="30">
         <v>45100</v>
       </c>
       <c r="B24" s="19"/>
@@ -3401,7 +3414,7 @@
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="29">
         <v>45101</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -3418,7 +3431,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="29">
         <v>45102</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -3435,7 +3448,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
+      <c r="A27" s="30">
         <v>45103</v>
       </c>
       <c r="B27" s="19"/>
@@ -3444,7 +3457,7 @@
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
+      <c r="A28" s="30">
         <v>45104</v>
       </c>
       <c r="B28" s="19"/>
@@ -3453,7 +3466,7 @@
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
+      <c r="A29" s="30">
         <v>45105</v>
       </c>
       <c r="B29" s="19"/>
@@ -3462,7 +3475,7 @@
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
+      <c r="A30" s="30">
         <v>45106</v>
       </c>
       <c r="B30" s="19"/>
@@ -3471,7 +3484,7 @@
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
+      <c r="A31" s="30">
         <v>45107</v>
       </c>
       <c r="B31" s="19"/>
@@ -3480,16 +3493,16 @@
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3528,27 +3541,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
         <v>84</v>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9F8F4-0074-45A0-83B9-032B33C4AB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -17,12 +16,12 @@
     <sheet name="Julho" sheetId="9" r:id="rId7"/>
     <sheet name="Relatorio" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$-416]d\-mmm;@"/>
@@ -237,9 +236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,9 +276,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,21 +521,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -547,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>44927</v>
       </c>
@@ -558,7 +557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>44928</v>
       </c>
@@ -569,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>44929</v>
       </c>
@@ -580,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>44930</v>
       </c>
@@ -591,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>44931</v>
       </c>
@@ -602,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>44932</v>
       </c>
@@ -613,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>44933</v>
       </c>
@@ -624,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>44934</v>
       </c>
@@ -635,7 +634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>44935</v>
       </c>
@@ -646,7 +645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>44936</v>
       </c>
@@ -657,7 +656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>44937</v>
       </c>
@@ -668,7 +667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>44938</v>
       </c>
@@ -679,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>44939</v>
       </c>
@@ -690,7 +689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>44940</v>
       </c>
@@ -701,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>44941</v>
       </c>
@@ -712,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>44942</v>
       </c>
@@ -723,7 +722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>44943</v>
       </c>
@@ -734,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>44944</v>
       </c>
@@ -745,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>44945</v>
       </c>
@@ -756,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>44946</v>
       </c>
@@ -767,7 +766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>44947</v>
       </c>
@@ -778,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>44948</v>
       </c>
@@ -789,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>44949</v>
       </c>
@@ -800,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>44950</v>
       </c>
@@ -811,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>44951</v>
       </c>
@@ -822,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>44952</v>
       </c>
@@ -833,7 +832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>44953</v>
       </c>
@@ -844,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>44954</v>
       </c>
@@ -855,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>44955</v>
       </c>
@@ -866,7 +865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>44956</v>
       </c>
@@ -877,7 +876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>44957</v>
       </c>
@@ -888,7 +887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -901,19 +900,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -922,21 +921,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -947,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>44958</v>
       </c>
@@ -958,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>44959</v>
       </c>
@@ -969,7 +968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>44960</v>
       </c>
@@ -980,7 +979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>44961</v>
       </c>
@@ -991,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>44962</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>44963</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>44964</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>44965</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>44966</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>44967</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>44968</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>44969</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>44970</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>44971</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>44972</v>
       </c>
@@ -1112,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>44973</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>44974</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>44975</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>44976</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>44977</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>44978</v>
       </c>
@@ -1178,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>44979</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>44980</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>44981</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>44982</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>44983</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>44984</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>44985</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1268,12 +1267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="25">
         <f>SUM(C2:C32)</f>
         <v>0</v>
@@ -1286,23 +1285,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1316,7 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>44986</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>44987</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>44988</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>44989</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>44990</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>44991</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>44992</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>44993</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>44994</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>44995</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>44996</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>44997</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>44998</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>44999</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45000</v>
       </c>
@@ -1572,7 +1571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>45001</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>45002</v>
       </c>
@@ -1606,7 +1605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>45003</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>45004</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>45005</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>45006</v>
       </c>
@@ -1674,7 +1673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>45007</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>45008</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>45009</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>45010</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>45011</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>45012</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>45013</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>45014</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>45015</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>45016</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1868,22 +1867,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1898,7 +1897,7 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45017</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45018</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45019</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45020</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45021</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45022</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45023</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45024</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45025</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45026</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45027</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45028</v>
       </c>
@@ -2102,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45029</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45030</v>
       </c>
@@ -2136,7 +2135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45031</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>45032</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>45033</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>45034</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>45035</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>45036</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>45037</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>45038</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>45039</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>45040</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>45041</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>45042</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>45043</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>45044</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>45045</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>45046</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
@@ -2433,22 +2432,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
@@ -2463,7 +2462,7 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>45047</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>45048</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>45049</v>
       </c>
@@ -2514,7 +2513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>45050</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>45051</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>45052</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>45053</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>45054</v>
       </c>
@@ -2599,7 +2598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>45055</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>45056</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>45057</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>45058</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>45059</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>45060</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>45061</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>45062</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>45063</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>45064</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>45065</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>45066</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>45067</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>45068</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>45069</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>45070</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <v>45071</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>45072</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>45073</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>45074</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>45075</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>45076</v>
       </c>
@@ -2973,7 +2972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <v>45077</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>0</v>
       </c>
@@ -3015,23 +3014,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A21" sqref="A21:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="31" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
@@ -3046,7 +3045,7 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>45078</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>45079</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <v>45080</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>45081</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>45082</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>45083</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>45084</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>45085</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>45086</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>45087</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>45088</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>45089</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>45090</v>
       </c>
@@ -3267,7 +3266,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>45091</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>45092</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>45093</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>45094</v>
       </c>
@@ -3335,7 +3334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <v>45095</v>
       </c>
@@ -3352,7 +3351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>45096</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <v>45097</v>
       </c>
@@ -3386,16 +3385,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="29">
         <v>45098</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="30">
         <v>45099</v>
       </c>
@@ -3404,7 +3411,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
         <v>45100</v>
       </c>
@@ -3413,7 +3420,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <v>45101</v>
       </c>
@@ -3430,7 +3437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <v>45102</v>
       </c>
@@ -3447,7 +3454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="30">
         <v>45103</v>
       </c>
@@ -3456,7 +3463,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
         <v>45104</v>
       </c>
@@ -3465,7 +3472,7 @@
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="30">
         <v>45105</v>
       </c>
@@ -3474,7 +3481,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
         <v>45106</v>
       </c>
@@ -3483,7 +3490,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>45107</v>
       </c>
@@ -3492,7 +3499,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>0</v>
       </c>
@@ -3517,37 +3524,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
@@ -3557,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD32ED4E-5E9F-4374-9FD5-765D682B1B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -16,12 +17,12 @@
     <sheet name="Julho" sheetId="9" r:id="rId7"/>
     <sheet name="Relatorio" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$-416]d\-mmm;@"/>
@@ -236,9 +237,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,9 +277,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,21 +522,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -546,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44927</v>
       </c>
@@ -557,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44928</v>
       </c>
@@ -568,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44929</v>
       </c>
@@ -579,7 +580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>44930</v>
       </c>
@@ -590,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44931</v>
       </c>
@@ -601,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44932</v>
       </c>
@@ -612,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>44933</v>
       </c>
@@ -623,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44934</v>
       </c>
@@ -634,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44935</v>
       </c>
@@ -645,7 +646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44936</v>
       </c>
@@ -656,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44937</v>
       </c>
@@ -667,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44938</v>
       </c>
@@ -678,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>44939</v>
       </c>
@@ -689,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>44940</v>
       </c>
@@ -700,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>44941</v>
       </c>
@@ -711,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>44942</v>
       </c>
@@ -722,7 +723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>44943</v>
       </c>
@@ -733,7 +734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>44944</v>
       </c>
@@ -744,7 +745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>44945</v>
       </c>
@@ -755,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>44946</v>
       </c>
@@ -766,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>44947</v>
       </c>
@@ -777,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>44948</v>
       </c>
@@ -788,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>44949</v>
       </c>
@@ -799,7 +800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>44950</v>
       </c>
@@ -810,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>44951</v>
       </c>
@@ -821,7 +822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>44952</v>
       </c>
@@ -832,7 +833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>44953</v>
       </c>
@@ -843,7 +844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>44954</v>
       </c>
@@ -854,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>44955</v>
       </c>
@@ -865,7 +866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>44956</v>
       </c>
@@ -876,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>44957</v>
       </c>
@@ -887,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -900,19 +901,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -921,21 +922,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -946,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44958</v>
       </c>
@@ -957,7 +958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44959</v>
       </c>
@@ -968,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44960</v>
       </c>
@@ -979,7 +980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>44961</v>
       </c>
@@ -990,7 +991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44962</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44963</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>44964</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44965</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44966</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44967</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44968</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44969</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>44970</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>44971</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>44972</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>44973</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>44974</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>44975</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>44976</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>44977</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>44978</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>44979</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>44980</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>44981</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>44982</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>44983</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>44984</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>44985</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1267,12 +1268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="25">
         <f>SUM(C2:C32)</f>
         <v>0</v>
@@ -1285,23 +1286,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1317,7 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44986</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44987</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44988</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>44989</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>44990</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44991</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>44992</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>44993</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44994</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44995</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44996</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44997</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>44998</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>44999</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>45000</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>45001</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>45002</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>45003</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>45004</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>45005</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>45006</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>45007</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>45008</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>45009</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>45010</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>45011</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>45012</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>45013</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>45014</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>45015</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>45016</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1867,22 +1868,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1897,7 +1898,7 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>45017</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>45018</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>45019</v>
       </c>
@@ -1948,7 +1949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>45020</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45021</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>45022</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>45023</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>45024</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>45025</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>45026</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>45027</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>45028</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>45029</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>45030</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>45031</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>45032</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>45033</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>45034</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>45035</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>45036</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>45037</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>45038</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>45039</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>45040</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>45041</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>45042</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>45043</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>45044</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>45045</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>45046</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
@@ -2432,22 +2433,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
@@ -2462,7 +2463,7 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>45047</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>45048</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>45049</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>45050</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>45051</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>45052</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>45053</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>45054</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>45055</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>45056</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>45057</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>45058</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>45059</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>45060</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>45061</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>45062</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>45063</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>45064</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>45065</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>45066</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>45067</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>45068</v>
       </c>
@@ -2836,7 +2837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>45069</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>45070</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>45071</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>45072</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>45073</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>45074</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>45075</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>45076</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>45077</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>0</v>
       </c>
@@ -3014,23 +3015,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E22"/>
+      <selection activeCell="A22" sqref="A22:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="31" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
@@ -3045,7 +3046,7 @@
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45078</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45079</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>45080</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>45081</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>45082</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
         <v>45083</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
         <v>45084</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>45085</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>45086</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>45087</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>45088</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>45089</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>45090</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>45091</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>45092</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>45093</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>45094</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>45095</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>45096</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>45097</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>45098</v>
       </c>
@@ -3402,16 +3403,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="30">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
         <v>45099</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>45100</v>
       </c>
@@ -3420,7 +3429,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>45101</v>
       </c>
@@ -3437,7 +3446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>45102</v>
       </c>
@@ -3454,7 +3463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>45103</v>
       </c>
@@ -3463,7 +3472,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>45104</v>
       </c>
@@ -3472,7 +3481,7 @@
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>45105</v>
       </c>
@@ -3481,7 +3490,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>45106</v>
       </c>
@@ -3490,7 +3499,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>45107</v>
       </c>
@@ -3499,7 +3508,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>0</v>
       </c>
@@ -3524,37 +3533,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
@@ -3564,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD32ED4E-5E9F-4374-9FD5-765D682B1B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A5ED6A-4294-402A-ADDB-AF3D7D5FE98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3019,7 +3019,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E23"/>
+      <selection activeCell="E23" sqref="A23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,13 +3421,21 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="29">
         <v>45100</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29">

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A5ED6A-4294-402A-ADDB-AF3D7D5FE98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54046F3-BBB1-436A-835F-888D6A5EE74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3019,7 +3019,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="A23:E24"/>
+      <selection activeCell="A26" sqref="A26:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3472,22 +3472,38 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="A27" s="29">
         <v>45103</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="29">
         <v>45104</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="30">

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54046F3-BBB1-436A-835F-888D6A5EE74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BC586-8AFC-400D-AD60-28A68A91A178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3019,7 +3019,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E28"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,22 +3506,38 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="A29" s="29">
         <v>45105</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="B29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
+      <c r="A30" s="29">
         <v>45106</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="30">

--- a/CTR DAIANE.xlsx
+++ b/CTR DAIANE.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BC586-8AFC-400D-AD60-28A68A91A178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -17,12 +16,12 @@
     <sheet name="Julho" sheetId="9" r:id="rId7"/>
     <sheet name="Relatorio" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$-416]d\-mmm;@"/>
@@ -127,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,12 +176,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -204,9 +197,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -237,9 +227,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,9 +267,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,7 +339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,21 +512,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -547,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>44927</v>
       </c>
@@ -558,7 +548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>44928</v>
       </c>
@@ -569,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>44929</v>
       </c>
@@ -580,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>44930</v>
       </c>
@@ -591,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>44931</v>
       </c>
@@ -602,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>44932</v>
       </c>
@@ -613,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>44933</v>
       </c>
@@ -624,7 +614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>44934</v>
       </c>
@@ -635,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>44935</v>
       </c>
@@ -646,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>44936</v>
       </c>
@@ -657,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>44937</v>
       </c>
@@ -668,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>44938</v>
       </c>
@@ -679,7 +669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>44939</v>
       </c>
@@ -690,7 +680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>44940</v>
       </c>
@@ -701,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>44941</v>
       </c>
@@ -712,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>44942</v>
       </c>
@@ -723,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>44943</v>
       </c>
@@ -734,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>44944</v>
       </c>
@@ -745,7 +735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>44945</v>
       </c>
@@ -756,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>44946</v>
       </c>
@@ -767,7 +757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>44947</v>
       </c>
@@ -778,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>44948</v>
       </c>
@@ -789,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>44949</v>
       </c>
@@ -800,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>44950</v>
       </c>
@@ -811,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>44951</v>
       </c>
@@ -822,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>44952</v>
       </c>
@@ -833,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>44953</v>
       </c>
@@ -844,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>44954</v>
       </c>
@@ -855,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>44955</v>
       </c>
@@ -866,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>44956</v>
       </c>
@@ -877,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>44957</v>
       </c>
@@ -888,7 +878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -901,19 +891,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -922,21 +912,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -947,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>44958</v>
       </c>
@@ -958,7 +948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>44959</v>
       </c>
@@ -969,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>44960</v>
       </c>
@@ -980,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>44961</v>
       </c>
@@ -991,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>44962</v>
       </c>
@@ -1002,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>44963</v>
       </c>
@@ -1013,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>44964</v>
       </c>
@@ -1024,7 +1014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>44965</v>
       </c>
@@ -1035,7 +1025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>44966</v>
       </c>
@@ -1046,7 +1036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>44967</v>
       </c>
@@ -1057,7 +1047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>44968</v>
       </c>
@@ -1068,7 +1058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>44969</v>
       </c>
@@ -1079,7 +1069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>44970</v>
       </c>
@@ -1090,7 +1080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>44971</v>
       </c>
@@ -1101,7 +1091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>44972</v>
       </c>
@@ -1112,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>44973</v>
       </c>
@@ -1123,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>44974</v>
       </c>
@@ -1134,7 +1124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>44975</v>
       </c>
@@ -1145,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>44976</v>
       </c>
@@ -1156,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>44977</v>
       </c>
@@ -1167,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>44978</v>
       </c>
@@ -1178,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>44979</v>
       </c>
@@ -1189,7 +1179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>44980</v>
       </c>
@@ -1200,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>44981</v>
       </c>
@@ -1211,7 +1201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>44982</v>
       </c>
@@ -1222,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>44983</v>
       </c>
@@ -1233,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>44984</v>
       </c>
@@ -1244,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>44985</v>
       </c>
@@ -1255,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1268,13 +1258,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="23">
         <f>SUM(C2:C32)</f>
         <v>0</v>
       </c>
@@ -1286,23 +1276,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1312,12 +1302,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>44986</v>
       </c>
@@ -1334,7 +1324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>44987</v>
       </c>
@@ -1351,7 +1341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>44988</v>
       </c>
@@ -1368,7 +1358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>44989</v>
       </c>
@@ -1385,7 +1375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>44990</v>
       </c>
@@ -1402,7 +1392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>44991</v>
       </c>
@@ -1419,7 +1409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>44992</v>
       </c>
@@ -1436,7 +1426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>44993</v>
       </c>
@@ -1453,7 +1443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>44994</v>
       </c>
@@ -1470,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>44995</v>
       </c>
@@ -1487,7 +1477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>44996</v>
       </c>
@@ -1504,7 +1494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>44997</v>
       </c>
@@ -1521,7 +1511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>44998</v>
       </c>
@@ -1538,7 +1528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>44999</v>
       </c>
@@ -1555,7 +1545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45000</v>
       </c>
@@ -1572,7 +1562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>45001</v>
       </c>
@@ -1589,7 +1579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>45002</v>
       </c>
@@ -1606,7 +1596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>45003</v>
       </c>
@@ -1623,7 +1613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>45004</v>
       </c>
@@ -1640,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>45005</v>
       </c>
@@ -1657,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>45006</v>
       </c>
@@ -1674,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>45007</v>
       </c>
@@ -1691,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>45008</v>
       </c>
@@ -1708,7 +1698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>45009</v>
       </c>
@@ -1725,7 +1715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>45010</v>
       </c>
@@ -1742,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>45011</v>
       </c>
@@ -1759,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>45012</v>
       </c>
@@ -1776,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>45013</v>
       </c>
@@ -1793,7 +1783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>45014</v>
       </c>
@@ -1810,7 +1800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>45015</v>
       </c>
@@ -1827,7 +1817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>45016</v>
       </c>
@@ -1844,7 +1834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1868,22 +1858,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1893,12 +1883,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45017</v>
       </c>
@@ -1915,7 +1905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45018</v>
       </c>
@@ -1932,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45019</v>
       </c>
@@ -1949,7 +1939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45020</v>
       </c>
@@ -1966,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45021</v>
       </c>
@@ -1983,7 +1973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45022</v>
       </c>
@@ -2000,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45023</v>
       </c>
@@ -2017,7 +2007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45024</v>
       </c>
@@ -2034,7 +2024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45025</v>
       </c>
@@ -2051,7 +2041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45026</v>
       </c>
@@ -2068,7 +2058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45027</v>
       </c>
@@ -2085,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45028</v>
       </c>
@@ -2102,7 +2092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45029</v>
       </c>
@@ -2119,7 +2109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45030</v>
       </c>
@@ -2136,7 +2126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45031</v>
       </c>
@@ -2153,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>45032</v>
       </c>
@@ -2170,7 +2160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>45033</v>
       </c>
@@ -2187,7 +2177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>45034</v>
       </c>
@@ -2204,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>45035</v>
       </c>
@@ -2221,7 +2211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>45036</v>
       </c>
@@ -2238,7 +2228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>45037</v>
       </c>
@@ -2255,7 +2245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>45038</v>
       </c>
@@ -2272,7 +2262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>45039</v>
       </c>
@@ -2289,7 +2279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>45040</v>
       </c>
@@ -2306,7 +2296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>45041</v>
       </c>
@@ -2323,7 +2313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>45042</v>
       </c>
@@ -2340,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>45043</v>
       </c>
@@ -2357,7 +2347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>45044</v>
       </c>
@@ -2374,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>45045</v>
       </c>
@@ -2391,7 +2381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>45046</v>
       </c>
@@ -2408,7 +2398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
@@ -2433,23 +2423,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2458,13 +2448,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
         <v>45047</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2480,8 +2470,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
         <v>45048</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -2497,8 +2487,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
         <v>45049</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2514,8 +2504,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
         <v>45050</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2531,8 +2521,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
         <v>45051</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -2548,8 +2538,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
         <v>45052</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -2565,8 +2555,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
         <v>45053</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -2582,8 +2572,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <v>45054</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -2599,8 +2589,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>45055</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -2616,8 +2606,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
         <v>45056</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -2633,8 +2623,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
         <v>45057</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -2650,8 +2640,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
         <v>45058</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -2667,8 +2657,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
         <v>45059</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -2684,8 +2674,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
         <v>45060</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -2701,8 +2691,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
         <v>45061</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -2718,8 +2708,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
         <v>45062</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -2735,8 +2725,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
         <v>45063</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -2752,8 +2742,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
         <v>45064</v>
       </c>
       <c r="B19" s="16">
@@ -2769,8 +2759,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
         <v>45065</v>
       </c>
       <c r="B20" s="16">
@@ -2786,8 +2776,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
         <v>45066</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -2803,8 +2793,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
         <v>45067</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -2820,8 +2810,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
         <v>45068</v>
       </c>
       <c r="B23" s="16">
@@ -2837,8 +2827,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
         <v>45069</v>
       </c>
       <c r="B24" s="16">
@@ -2854,8 +2844,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
         <v>45070</v>
       </c>
       <c r="B25" s="16">
@@ -2871,8 +2861,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
         <v>45071</v>
       </c>
       <c r="B26" s="16">
@@ -2888,8 +2878,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
         <v>45072</v>
       </c>
       <c r="B27" s="16">
@@ -2905,8 +2895,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
         <v>45073</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -2922,8 +2912,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
         <v>45074</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -2939,8 +2929,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
         <v>45075</v>
       </c>
       <c r="B30" s="16">
@@ -2956,8 +2946,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
         <v>45076</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -2973,8 +2963,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
         <v>45077</v>
       </c>
       <c r="B32" s="16">
@@ -2990,8 +2980,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="5">
@@ -3015,24 +3005,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="28" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -3041,13 +3031,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26">
         <v>45078</v>
       </c>
       <c r="B2" s="16">
@@ -3063,8 +3053,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="26">
         <v>45079</v>
       </c>
       <c r="B3" s="16">
@@ -3080,8 +3070,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
         <v>45080</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -3097,8 +3087,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
         <v>45081</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -3114,8 +3104,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
         <v>45082</v>
       </c>
       <c r="B6" s="16">
@@ -3131,8 +3121,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
         <v>45083</v>
       </c>
       <c r="B7" s="16">
@@ -3148,8 +3138,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
         <v>45084</v>
       </c>
       <c r="B8" s="16">
@@ -3165,8 +3155,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <v>45085</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -3182,8 +3172,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
         <v>45086</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -3199,8 +3189,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
         <v>45087</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -3216,8 +3206,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
         <v>45088</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -3233,8 +3223,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
         <v>45089</v>
       </c>
       <c r="B13" s="16">
@@ -3250,8 +3240,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
         <v>45090</v>
       </c>
       <c r="B14" s="16">
@@ -3267,8 +3257,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
         <v>45091</v>
       </c>
       <c r="B15" s="16">
@@ -3284,8 +3274,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
         <v>45092</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -3301,8 +3291,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="29">
         <v>45093</v>
       </c>
       <c r="B17" s="16">
@@ -3318,8 +3308,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
         <v>45094</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -3335,8 +3325,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
         <v>45095</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -3352,8 +3342,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
         <v>45096</v>
       </c>
       <c r="B20" s="16">
@@ -3369,8 +3359,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
         <v>45097</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -3386,8 +3376,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <v>45098</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -3403,8 +3393,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
         <v>45099</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -3420,8 +3410,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
         <v>45100</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -3437,8 +3427,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
         <v>45101</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -3454,8 +3444,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
         <v>45102</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -3471,8 +3461,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
         <v>45103</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -3488,8 +3478,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
         <v>45104</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -3505,8 +3495,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="27">
         <v>45105</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -3522,8 +3512,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="27">
         <v>45106</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -3539,17 +3529,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
         <v>45107</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="B31" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="5">
@@ -3573,51 +3571,51 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
         <v>84</v>
